--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-242803.8285203215</v>
+        <v>-245267.8919640267</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>244.1157196126572</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>47.71582604916046</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>15.15535200018221</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>51.29058878979752</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -795,7 +795,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494241</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>15.31548816222173</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>18.66141300458034</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>91.92066168120682</v>
+        <v>175.3121446383134</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3.978140404249897</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>62.44097469465961</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>87.18437556471723</v>
       </c>
       <c r="H8" t="n">
-        <v>32.23168924578721</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3.87058568512919</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>176.690263412701</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>35.88641949135547</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>64.91921363453612</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>54.63637568893558</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>124.8808320771208</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.23631477519695</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>53.08838020946058</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892458</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>99.21841339139672</v>
+        <v>28.75188085811831</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>240.7377005646516</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2180.789557935302</v>
+        <v>1609.330275668611</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1609.330275668611</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1251.06457706186</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>865.2763244636161</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>454.2904196740085</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3310.29738524535</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3310.29738524535</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3310.29738524535</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>3310.29738524535</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2957.528729975236</v>
+        <v>2372.935365905502</v>
       </c>
       <c r="X2" t="n">
-        <v>2957.528729975236</v>
+        <v>1999.469607644422</v>
       </c>
       <c r="Y2" t="n">
-        <v>2567.389397999424</v>
+        <v>1609.330275668611</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4425,22 +4425,22 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.8377936138381</v>
+        <v>376.7853475753371</v>
       </c>
       <c r="C4" t="n">
-        <v>163.8377936138381</v>
+        <v>376.7853475753371</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>902.0370936923462</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>902.0370936923462</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>902.0370936923462</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>902.0370936923462</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="W4" t="n">
-        <v>612.6199236553855</v>
+        <v>376.7853475753371</v>
       </c>
       <c r="X4" t="n">
-        <v>384.6303727573681</v>
+        <v>376.7853475753371</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.8377936138381</v>
+        <v>376.7853475753371</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1664.678443125551</v>
+        <v>1363.124011696101</v>
       </c>
       <c r="C5" t="n">
-        <v>1295.71592618514</v>
+        <v>994.1614947556898</v>
       </c>
       <c r="D5" t="n">
-        <v>1295.71592618514</v>
+        <v>994.1614947556898</v>
       </c>
       <c r="E5" t="n">
-        <v>909.9276735868953</v>
+        <v>994.1614947556898</v>
       </c>
       <c r="F5" t="n">
-        <v>498.9417687972877</v>
+        <v>583.1755899660823</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,19 +4562,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y5" t="n">
-        <v>2051.278283189673</v>
+        <v>1749.723851760223</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4689,7 +4689,7 @@
         <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>382.3382468580007</v>
+        <v>217.4203875707503</v>
       </c>
       <c r="C7" t="n">
-        <v>213.4020639300938</v>
+        <v>217.4203875707503</v>
       </c>
       <c r="D7" t="n">
         <v>213.4020639300938</v>
@@ -4711,64 +4711,64 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>857.8153142074176</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>603.1308260015307</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="W7" t="n">
-        <v>603.1308260015307</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="X7" t="n">
-        <v>603.1308260015307</v>
+        <v>438.2129667142804</v>
       </c>
       <c r="Y7" t="n">
-        <v>382.3382468580007</v>
+        <v>217.4203875707503</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2038.144201386632</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C8" t="n">
-        <v>1669.181684446221</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="D8" t="n">
-        <v>1310.91598583947</v>
+        <v>547.3108956025778</v>
       </c>
       <c r="E8" t="n">
-        <v>925.127733241226</v>
+        <v>161.5226430043336</v>
       </c>
       <c r="F8" t="n">
-        <v>514.1418284516185</v>
+        <v>154.5771422551301</v>
       </c>
       <c r="G8" t="n">
-        <v>99.06937829661496</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450754</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y8" t="n">
-        <v>2424.744041450754</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="9">
@@ -4875,10 +4875,10 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>631.7841389438286</v>
+        <v>332.773976541745</v>
       </c>
       <c r="C10" t="n">
-        <v>631.7841389438286</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>481.6674995314928</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>481.6674995314928</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>742.4119922700021</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>742.4119922700021</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438286</v>
+        <v>742.4119922700021</v>
       </c>
       <c r="V10" t="n">
-        <v>631.7841389438286</v>
+        <v>742.4119922700021</v>
       </c>
       <c r="W10" t="n">
-        <v>631.7841389438286</v>
+        <v>742.4119922700021</v>
       </c>
       <c r="X10" t="n">
-        <v>631.7841389438286</v>
+        <v>514.4224413719847</v>
       </c>
       <c r="Y10" t="n">
-        <v>631.7841389438286</v>
+        <v>514.4224413719847</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5024,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,7 +5036,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.652278938886</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1052.829365488567</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>883.8931825606599</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>733.7765431483241</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>585.863449565931</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>438.9735020680206</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>271.7774027829005</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>130.0655716250986</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="U13" t="n">
-        <v>2227.361618603201</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V13" t="n">
-        <v>1972.677130397314</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W13" t="n">
-        <v>1683.259960360354</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.270409462336</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>1234.477830318806</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5258,67 +5258,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1057.613315601761</v>
+        <v>984.9192356072716</v>
       </c>
       <c r="C16" t="n">
-        <v>888.6771326738537</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>738.560493261518</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>590.6473996791249</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>443.7574521812145</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.043910473548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1460.05435957553</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1239.261780432</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>726.955532171245</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0193492433381</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2393.338457106058</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2393.338457106058</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2393.338457106058</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="20">
@@ -5747,7 +5747,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,10 +5759,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5777,7 +5777,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6918836311962</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7557007032893</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="D22" t="n">
-        <v>482.6390612909536</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580258</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235162</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258103</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602301</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396414</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359453</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>983.340348461436</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.340348461436</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797186</v>
@@ -6148,49 +6148,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,40 +6470,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>559.7594328861248</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1734.29168600076</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1479.607197794873</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1190.190027757912</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>962.2004768598947</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>741.4078977163646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7786,31 +7786,31 @@
         <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>121.1571721583504</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>363.205899604293</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,16 +22601,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>45.37941682721006</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>152.4862366927521</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>112.610445409694</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>40.64330621514804</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>13.28686650066111</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>47.21554925517245</v>
+        <v>117.6820817884509</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>45.44677382459258</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26320,37 +26320,37 @@
         <v>307890.6636991061</v>
       </c>
       <c r="E2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837521</v>
       </c>
       <c r="F2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="G2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="H2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="I2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="J2" t="n">
-        <v>302679.9748837524</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="K2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="L2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="M2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="P2" t="n">
         <v>307890.663699106</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.7179936318</v>
       </c>
     </row>
     <row r="4">
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43110.95474649293</v>
+        <v>43110.95474649305</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687966</v>
@@ -26436,28 +26436,28 @@
         <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>15436.64000687968</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15436.64000687968</v>
+      </c>
+      <c r="N4" t="n">
         <v>15436.64000687965</v>
       </c>
-      <c r="L4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="N4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15436.64000687962</v>
-      </c>
       <c r="P4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997314</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1205068.67443258</v>
+        <v>-1205289.805746555</v>
       </c>
       <c r="C6" t="n">
-        <v>106359.9790336602</v>
+        <v>106359.9790336603</v>
       </c>
       <c r="D6" t="n">
-        <v>106359.9790336603</v>
+        <v>106359.9790336601</v>
       </c>
       <c r="E6" t="n">
-        <v>-139291.6567543897</v>
+        <v>-139326.3946798255</v>
       </c>
       <c r="F6" t="n">
-        <v>186120.8050529654</v>
+        <v>186086.0671275298</v>
       </c>
       <c r="G6" t="n">
-        <v>186120.8050529654</v>
+        <v>186086.0671275298</v>
       </c>
       <c r="H6" t="n">
-        <v>186120.8050529655</v>
+        <v>186086.0671275299</v>
       </c>
       <c r="I6" t="n">
-        <v>186120.8050529653</v>
+        <v>186086.0671275297</v>
       </c>
       <c r="J6" t="n">
-        <v>-31410.39734431195</v>
+        <v>-31445.13526974773</v>
       </c>
       <c r="K6" t="n">
-        <v>186120.8050529654</v>
+        <v>186086.0671275297</v>
       </c>
       <c r="L6" t="n">
-        <v>186120.8050529655</v>
+        <v>186086.0671275297</v>
       </c>
       <c r="M6" t="n">
-        <v>101065.7771174537</v>
+        <v>101031.0391920178</v>
       </c>
       <c r="N6" t="n">
-        <v>186120.8050529654</v>
+        <v>186086.0671275298</v>
       </c>
       <c r="O6" t="n">
-        <v>186120.8050529654</v>
+        <v>186086.0671275298</v>
       </c>
       <c r="P6" t="n">
-        <v>161871.3305815857</v>
+        <v>161871.3305815856</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,32 +27009,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973555</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>94.03240978799361</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>297.9503799276155</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>133.2999848559906</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>171.1076123268616</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27594,16 +27594,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>319.0010639722466</v>
+        <v>235.60958101514</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>144.6373326139625</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,7 +27828,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>223.7708635109533</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>323.7373500887362</v>
       </c>
       <c r="H8" t="n">
-        <v>262.3760751415332</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>141.5504623378021</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>13.07876191874092</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28849,10 +28849,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-7.333857380491618e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,16 +31838,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>173.3851399586646</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32087,10 +32087,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,10 +32561,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,16 +33263,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>400.5469039565762</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>31.25110603664623</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35735,10 +35735,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,10 +36209,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36291,7 +36291,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060424</v>
+        <v>373.2618997060436</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>257.9506595121318</v>
